--- a/Data_of_Interest_Cleaned/upah_minimum_regional.xlsx
+++ b/Data_of_Interest_Cleaned/upah_minimum_regional.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,14 +436,13 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>38 Provinsi</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="n">
-        <v>2019</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>2020</v>
+          <t>Provinsi</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>UMP_2020</t>
+        </is>
       </c>
     </row>
     <row r="2">
@@ -453,9 +452,6 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2916810</v>
-      </c>
-      <c r="C2" t="n">
         <v>3165031</v>
       </c>
     </row>
@@ -466,9 +462,6 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2303403</v>
-      </c>
-      <c r="C3" t="n">
         <v>2499423</v>
       </c>
     </row>
@@ -479,9 +472,6 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2289220</v>
-      </c>
-      <c r="C4" t="n">
         <v>2484041</v>
       </c>
     </row>
@@ -492,9 +482,6 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2662026</v>
-      </c>
-      <c r="C5" t="n">
         <v>2888564</v>
       </c>
     </row>
@@ -505,9 +492,6 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2423889</v>
-      </c>
-      <c r="C6" t="n">
         <v>2630162</v>
       </c>
     </row>
@@ -518,9 +502,6 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2804453</v>
-      </c>
-      <c r="C7" t="n">
         <v>3043111</v>
       </c>
     </row>
@@ -531,9 +512,6 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2040407</v>
-      </c>
-      <c r="C8" t="n">
         <v>2213604</v>
       </c>
     </row>
@@ -544,9 +522,6 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2241270</v>
-      </c>
-      <c r="C9" t="n">
         <v>2432002</v>
       </c>
     </row>
@@ -557,9 +532,6 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2976706</v>
-      </c>
-      <c r="C10" t="n">
         <v>3230024</v>
       </c>
     </row>
@@ -570,9 +542,6 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2769754</v>
-      </c>
-      <c r="C11" t="n">
         <v>3005460</v>
       </c>
     </row>
@@ -583,9 +552,6 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3940973</v>
-      </c>
-      <c r="C12" t="n">
         <v>4276350</v>
       </c>
     </row>
@@ -596,9 +562,6 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1668373</v>
-      </c>
-      <c r="C13" t="n">
         <v>1810351</v>
       </c>
     </row>
@@ -609,9 +572,6 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1605396</v>
-      </c>
-      <c r="C14" t="n">
         <v>1742015</v>
       </c>
     </row>
@@ -622,9 +582,6 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1570923</v>
-      </c>
-      <c r="C15" t="n">
         <v>1704608</v>
       </c>
     </row>
@@ -635,9 +592,6 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1630059</v>
-      </c>
-      <c r="C16" t="n">
         <v>1768777</v>
       </c>
     </row>
@@ -648,9 +602,6 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2267990</v>
-      </c>
-      <c r="C17" t="n">
         <v>2460997</v>
       </c>
     </row>
@@ -661,9 +612,6 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2297969</v>
-      </c>
-      <c r="C18" t="n">
         <v>2494000</v>
       </c>
     </row>
@@ -674,9 +622,6 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2012610</v>
-      </c>
-      <c r="C19" t="n">
         <v>2183883</v>
       </c>
     </row>
@@ -687,9 +632,6 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1795000</v>
-      </c>
-      <c r="C20" t="n">
         <v>1950000</v>
       </c>
     </row>
@@ -700,9 +642,6 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2211500</v>
-      </c>
-      <c r="C21" t="n">
         <v>2399699</v>
       </c>
     </row>
@@ -713,9 +652,6 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2663435</v>
-      </c>
-      <c r="C22" t="n">
         <v>2903145</v>
       </c>
     </row>
@@ -726,9 +662,6 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2651782</v>
-      </c>
-      <c r="C23" t="n">
         <v>2877449</v>
       </c>
     </row>
@@ -739,9 +672,6 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2747561</v>
-      </c>
-      <c r="C24" t="n">
         <v>2981379</v>
       </c>
     </row>
@@ -752,9 +682,6 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2765463</v>
-      </c>
-      <c r="C25" t="n">
         <v>3000804</v>
       </c>
     </row>
@@ -765,9 +692,6 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>3051076</v>
-      </c>
-      <c r="C26" t="n">
         <v>3310723</v>
       </c>
     </row>
@@ -778,9 +702,6 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2123040</v>
-      </c>
-      <c r="C27" t="n">
         <v>2303711</v>
       </c>
     </row>
@@ -791,9 +712,6 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2860382</v>
-      </c>
-      <c r="C28" t="n">
         <v>3103800</v>
       </c>
     </row>
@@ -804,9 +722,6 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2351870</v>
-      </c>
-      <c r="C29" t="n">
         <v>2552015</v>
       </c>
     </row>
@@ -817,9 +732,6 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2384020</v>
-      </c>
-      <c r="C30" t="n">
         <v>2788826</v>
       </c>
     </row>
@@ -830,9 +742,6 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2381000</v>
-      </c>
-      <c r="C31" t="n">
         <v>2678863</v>
       </c>
     </row>
@@ -843,9 +752,6 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2400664</v>
-      </c>
-      <c r="C32" t="n">
         <v>2604961</v>
       </c>
     </row>
@@ -856,9 +762,6 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2508091</v>
-      </c>
-      <c r="C33" t="n">
         <v>2721530</v>
       </c>
     </row>
@@ -869,9 +772,6 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2934500</v>
-      </c>
-      <c r="C34" t="n">
         <v>3134600</v>
       </c>
     </row>
@@ -882,7 +782,6 @@
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -891,9 +790,6 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3240900</v>
-      </c>
-      <c r="C36" t="n">
         <v>3516700</v>
       </c>
     </row>
@@ -904,7 +800,6 @@
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
-      <c r="C37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -913,7 +808,6 @@
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -922,7 +816,6 @@
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
-      <c r="C39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -931,9 +824,6 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2455662</v>
-      </c>
-      <c r="C40" t="n">
         <v>2672371</v>
       </c>
     </row>
